--- a/biology/Histoire de la zoologie et de la botanique/Tommaso_Salvadori/Tommaso_Salvadori.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tommaso_Salvadori/Tommaso_Salvadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Tommaso Salvadori, de son nom complet Adelardo Tommaso Salvadori Paleotti, (né le 30 septembre 1835 à Porto San Giorgio, dans la province de Fermo dans la région des Marches et mort le 9 octobre 1923 à Turin) est un médecin, un pédagogue, un écrivain et un ornithologue italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelardo Tommaso Salvadori Paleotti fait des études de médecine à Rome et à Pise. Il participe, en 1860, parmi de nombreux autres médecins, à l'Expédition des Mille aux côtés de Garibaldi lors de la conquête de la Sicile.
 Il s’installe ensuite à Turin et se consacre à l’ornithologie. Il est assistant, de 1863 à 1879, du Muséum de zoologie de l’université de Turin sous la direction de Filippo de Filippi (1814-1867). Puis, à partir de 1879 et jusqu’à sa mort en 1923, vice-président de ce muséum. Sous son action la collection ornithologique devient l’une des plus importantes d’Italie.
@@ -547,7 +561,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Myzomèle sobre
 Myzomèle de Nouvelle-irlande (1891)</t>
